--- a/premier_league_winners.xlsx
+++ b/premier_league_winners.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python1\Praca inz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E3CC5-CE3F-4EFC-8D4C-6707AF79CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87840040-A7B4-4C5B-A99A-9E7597362460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>sezon</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Leicester</t>
+  </si>
+  <si>
+    <t>22/23</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,6 +734,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
